--- a/docs/misc/GIS_Demographic Information.xlsx
+++ b/docs/misc/GIS_Demographic Information.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14520" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="13420" yWindow="620" windowWidth="14520" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>GIS</t>
   </si>
@@ -39,9 +39,6 @@
     <t>danit.kaya@gmail.com</t>
   </si>
   <si>
-    <t>Elizabeth Crohn</t>
-  </si>
-  <si>
     <t>ec2341@cumc.columbia.edu</t>
   </si>
   <si>
@@ -166,6 +163,27 @@
   </si>
   <si>
     <t>MD</t>
+  </si>
+  <si>
+    <t>FirstDay</t>
+  </si>
+  <si>
+    <t>Elizabeth Cohn</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Ailish Bateman</t>
+  </si>
+  <si>
+    <t>Brittany Howard</t>
+  </si>
+  <si>
+    <t>Shirley Solomo</t>
+  </si>
+  <si>
+    <t>Tshema</t>
   </si>
 </sst>
 </file>
@@ -178,7 +196,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,21 +574,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,13 +596,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -592,13 +613,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -606,198 +630,269 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>46</v>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
